--- a/data/pca/factorExposure/factorExposure_2012-04-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-16.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01663361136542515</v>
+        <v>-0.01691947868618337</v>
       </c>
       <c r="C2">
-        <v>0.03572717644981132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02937881921682567</v>
+      </c>
+      <c r="D2">
+        <v>0.002863727756109979</v>
+      </c>
+      <c r="E2">
+        <v>0.009774088444414646</v>
+      </c>
+      <c r="F2">
+        <v>-0.007326669987963293</v>
+      </c>
+      <c r="G2">
+        <v>-0.002120181056265601</v>
+      </c>
+      <c r="H2">
+        <v>0.05302073306659126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07577725047461574</v>
+        <v>-0.08815637955963622</v>
       </c>
       <c r="C4">
-        <v>0.05556189968213918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.0384982739815844</v>
+      </c>
+      <c r="D4">
+        <v>0.06827896564453831</v>
+      </c>
+      <c r="E4">
+        <v>0.01263033092459646</v>
+      </c>
+      <c r="F4">
+        <v>-0.02728037926292236</v>
+      </c>
+      <c r="G4">
+        <v>-0.01050105112724526</v>
+      </c>
+      <c r="H4">
+        <v>-0.04945601204149973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1067425241597859</v>
+        <v>-0.1188419707706549</v>
       </c>
       <c r="C6">
-        <v>0.05545961863679184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03241296745641726</v>
+      </c>
+      <c r="D6">
+        <v>0.01077982524120691</v>
+      </c>
+      <c r="E6">
+        <v>-0.01057821331089677</v>
+      </c>
+      <c r="F6">
+        <v>-0.0602858152976954</v>
+      </c>
+      <c r="G6">
+        <v>-0.01915175541139149</v>
+      </c>
+      <c r="H6">
+        <v>0.0830391888297871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04989224219039735</v>
+        <v>-0.0641535812505899</v>
       </c>
       <c r="C7">
-        <v>0.02818207305882828</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.01948138441048125</v>
+      </c>
+      <c r="D7">
+        <v>0.04550488303062242</v>
+      </c>
+      <c r="E7">
+        <v>0.03527470021326407</v>
+      </c>
+      <c r="F7">
+        <v>-0.03948710253522585</v>
+      </c>
+      <c r="G7">
+        <v>0.04009786221782353</v>
+      </c>
+      <c r="H7">
+        <v>-0.02446237072492244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03568120137434148</v>
+        <v>-0.04006449993067487</v>
       </c>
       <c r="C8">
-        <v>0.01143983957083132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.007438571849157633</v>
+      </c>
+      <c r="D8">
+        <v>0.02894286518172973</v>
+      </c>
+      <c r="E8">
+        <v>0.02670945708240445</v>
+      </c>
+      <c r="F8">
+        <v>-0.04501449811850981</v>
+      </c>
+      <c r="G8">
+        <v>-0.04396575625499972</v>
+      </c>
+      <c r="H8">
+        <v>-0.0118781164871673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06848865780350592</v>
+        <v>-0.07882932677886394</v>
       </c>
       <c r="C9">
-        <v>0.04547820161302959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02892341991239264</v>
+      </c>
+      <c r="D9">
+        <v>0.06386996073356101</v>
+      </c>
+      <c r="E9">
+        <v>0.03475657988369651</v>
+      </c>
+      <c r="F9">
+        <v>-0.03336825731841615</v>
+      </c>
+      <c r="G9">
+        <v>-0.01262513741736746</v>
+      </c>
+      <c r="H9">
+        <v>-0.05587929633451214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02869552942089937</v>
+        <v>-0.03578460649285216</v>
       </c>
       <c r="C10">
-        <v>0.03433591114001201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04266111346975686</v>
+      </c>
+      <c r="D10">
+        <v>-0.1738624776851341</v>
+      </c>
+      <c r="E10">
+        <v>0.04924711673778502</v>
+      </c>
+      <c r="F10">
+        <v>-0.04557483219673739</v>
+      </c>
+      <c r="G10">
+        <v>0.0416160096778757</v>
+      </c>
+      <c r="H10">
+        <v>0.03673740418099933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07108575565718085</v>
+        <v>-0.07621928729535607</v>
       </c>
       <c r="C11">
-        <v>0.04683155538054291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02598781957013155</v>
+      </c>
+      <c r="D11">
+        <v>0.06243375019617537</v>
+      </c>
+      <c r="E11">
+        <v>-0.006890865789035742</v>
+      </c>
+      <c r="F11">
+        <v>-0.02550697451640789</v>
+      </c>
+      <c r="G11">
+        <v>-0.002732575820850425</v>
+      </c>
+      <c r="H11">
+        <v>-0.0982174901741758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05756401455666077</v>
+        <v>-0.06596204587411815</v>
       </c>
       <c r="C12">
-        <v>0.05069369301815416</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03440391443731686</v>
+      </c>
+      <c r="D12">
+        <v>0.04981470418227921</v>
+      </c>
+      <c r="E12">
+        <v>0.01259937625234533</v>
+      </c>
+      <c r="F12">
+        <v>-0.01646872872631772</v>
+      </c>
+      <c r="G12">
+        <v>-0.004486044072749209</v>
+      </c>
+      <c r="H12">
+        <v>-0.0567109511421787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0607649441466214</v>
+        <v>-0.065217516850771</v>
       </c>
       <c r="C13">
-        <v>0.04152163385490207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02488058396350593</v>
+      </c>
+      <c r="D13">
+        <v>0.04275054911506915</v>
+      </c>
+      <c r="E13">
+        <v>0.01504560599805715</v>
+      </c>
+      <c r="F13">
+        <v>-0.005459380561392153</v>
+      </c>
+      <c r="G13">
+        <v>-0.001493499902826805</v>
+      </c>
+      <c r="H13">
+        <v>-0.05290500517066752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03285194468907595</v>
+        <v>-0.04049100923182374</v>
       </c>
       <c r="C14">
-        <v>0.03093671077312088</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02660194332462693</v>
+      </c>
+      <c r="D14">
+        <v>0.004518846907032237</v>
+      </c>
+      <c r="E14">
+        <v>0.02786986700904024</v>
+      </c>
+      <c r="F14">
+        <v>-0.01496952915292314</v>
+      </c>
+      <c r="G14">
+        <v>-0.01888176810885556</v>
+      </c>
+      <c r="H14">
+        <v>-0.05296497826340012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03922574523541118</v>
+        <v>-0.03966908212639911</v>
       </c>
       <c r="C15">
-        <v>0.01162908069863161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.003367814479357909</v>
+      </c>
+      <c r="D15">
+        <v>0.005048280791662578</v>
+      </c>
+      <c r="E15">
+        <v>0.04333157223647196</v>
+      </c>
+      <c r="F15">
+        <v>0.00278257453059295</v>
+      </c>
+      <c r="G15">
+        <v>-0.02729786916916459</v>
+      </c>
+      <c r="H15">
+        <v>-0.04037212202832775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06058889983115903</v>
+        <v>-0.06963777617860149</v>
       </c>
       <c r="C16">
-        <v>0.04237375435483109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.0267341124376772</v>
+      </c>
+      <c r="D16">
+        <v>0.06276802693201454</v>
+      </c>
+      <c r="E16">
+        <v>0.006825121811739825</v>
+      </c>
+      <c r="F16">
+        <v>-0.02495895069780201</v>
+      </c>
+      <c r="G16">
+        <v>0.001227836108737436</v>
+      </c>
+      <c r="H16">
+        <v>-0.06047017171149273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06440033216325022</v>
+        <v>-0.06318708513417638</v>
       </c>
       <c r="C20">
-        <v>0.03279402573473799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.0133599923686979</v>
+      </c>
+      <c r="D20">
+        <v>0.04012279211471211</v>
+      </c>
+      <c r="E20">
+        <v>0.03073785468382337</v>
+      </c>
+      <c r="F20">
+        <v>-0.0195716395910866</v>
+      </c>
+      <c r="G20">
+        <v>-0.01396866722881083</v>
+      </c>
+      <c r="H20">
+        <v>-0.05291472687134255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02377903789680894</v>
+        <v>-0.02430644785604986</v>
       </c>
       <c r="C21">
-        <v>-0.004387681257591502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01182820846681068</v>
+      </c>
+      <c r="D21">
+        <v>0.03252300712377439</v>
+      </c>
+      <c r="E21">
+        <v>0.03993302078086759</v>
+      </c>
+      <c r="F21">
+        <v>0.005246102253577374</v>
+      </c>
+      <c r="G21">
+        <v>-0.009022318821709327</v>
+      </c>
+      <c r="H21">
+        <v>0.04328289474966142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0717274849300728</v>
+        <v>-0.06774337062938557</v>
       </c>
       <c r="C22">
-        <v>0.06115690464271527</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0394536171126701</v>
+      </c>
+      <c r="D22">
+        <v>0.075713886309533</v>
+      </c>
+      <c r="E22">
+        <v>0.5832751335762951</v>
+      </c>
+      <c r="F22">
+        <v>0.1937320353893394</v>
+      </c>
+      <c r="G22">
+        <v>0.05483456656998956</v>
+      </c>
+      <c r="H22">
+        <v>0.1858540431655026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07271814778737204</v>
+        <v>-0.0683449697583931</v>
       </c>
       <c r="C23">
-        <v>0.06009838940276786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03816221119455206</v>
+      </c>
+      <c r="D23">
+        <v>0.07668312519796634</v>
+      </c>
+      <c r="E23">
+        <v>0.5827642743735073</v>
+      </c>
+      <c r="F23">
+        <v>0.1927368325808513</v>
+      </c>
+      <c r="G23">
+        <v>0.05300807937737967</v>
+      </c>
+      <c r="H23">
+        <v>0.1814470457206604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06964557472494182</v>
+        <v>-0.07919227932207004</v>
       </c>
       <c r="C24">
-        <v>0.05034134691388947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03226926894746429</v>
+      </c>
+      <c r="D24">
+        <v>0.05947328454113558</v>
+      </c>
+      <c r="E24">
+        <v>0.01550147906082522</v>
+      </c>
+      <c r="F24">
+        <v>-0.03346732399996013</v>
+      </c>
+      <c r="G24">
+        <v>-0.01001592520226922</v>
+      </c>
+      <c r="H24">
+        <v>-0.06661086242452698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07057578606262638</v>
+        <v>-0.07707355605369916</v>
       </c>
       <c r="C25">
-        <v>0.0564025812196267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03678844001639308</v>
+      </c>
+      <c r="D25">
+        <v>0.05272116027179285</v>
+      </c>
+      <c r="E25">
+        <v>0.01784764968534861</v>
+      </c>
+      <c r="F25">
+        <v>-0.02802064710022701</v>
+      </c>
+      <c r="G25">
+        <v>-0.02194054903723884</v>
+      </c>
+      <c r="H25">
+        <v>-0.07071942230796781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.0456984471719775</v>
+        <v>-0.04733256375990417</v>
       </c>
       <c r="C26">
-        <v>0.01058072871341349</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001311321656166378</v>
+      </c>
+      <c r="D26">
+        <v>0.01975208564217245</v>
+      </c>
+      <c r="E26">
+        <v>0.0503222176681981</v>
+      </c>
+      <c r="F26">
+        <v>-0.02104566691471928</v>
+      </c>
+      <c r="G26">
+        <v>0.0008456530609362187</v>
+      </c>
+      <c r="H26">
+        <v>-0.06164447412050674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05572952650752915</v>
+        <v>-0.06659104155835018</v>
       </c>
       <c r="C28">
-        <v>0.07404381875121815</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08343530077465881</v>
+      </c>
+      <c r="D28">
+        <v>-0.3087574915970026</v>
+      </c>
+      <c r="E28">
+        <v>0.02580192055411916</v>
+      </c>
+      <c r="F28">
+        <v>-0.06009375752887956</v>
+      </c>
+      <c r="G28">
+        <v>-0.02115476327021927</v>
+      </c>
+      <c r="H28">
+        <v>0.0380990014450678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04118741977360444</v>
+        <v>-0.04805202317382947</v>
       </c>
       <c r="C29">
-        <v>0.03194628009374231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.0247159573061511</v>
+      </c>
+      <c r="D29">
+        <v>0.004987833951949256</v>
+      </c>
+      <c r="E29">
+        <v>0.05278354054670874</v>
+      </c>
+      <c r="F29">
+        <v>-0.001328312833156987</v>
+      </c>
+      <c r="G29">
+        <v>-0.002357507156495622</v>
+      </c>
+      <c r="H29">
+        <v>-0.07982591999866791</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1247402544008718</v>
+        <v>-0.1327241585549346</v>
       </c>
       <c r="C30">
-        <v>0.09470703635813575</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06347687221366444</v>
+      </c>
+      <c r="D30">
+        <v>0.07333179229656527</v>
+      </c>
+      <c r="E30">
+        <v>0.08327380628853145</v>
+      </c>
+      <c r="F30">
+        <v>0.008428596863596262</v>
+      </c>
+      <c r="G30">
+        <v>-0.0640449726940063</v>
+      </c>
+      <c r="H30">
+        <v>0.02504938199649998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04231920007206282</v>
+        <v>-0.04825999224474354</v>
       </c>
       <c r="C31">
-        <v>0.01977010026199841</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01112412772154071</v>
+      </c>
+      <c r="D31">
+        <v>0.02480029837287809</v>
+      </c>
+      <c r="E31">
+        <v>0.03180255320652359</v>
+      </c>
+      <c r="F31">
+        <v>-0.01262714477379155</v>
+      </c>
+      <c r="G31">
+        <v>0.01638979959674691</v>
+      </c>
+      <c r="H31">
+        <v>-0.07207266376745165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03750656959689274</v>
+        <v>-0.03823849344209891</v>
       </c>
       <c r="C32">
-        <v>0.0224491289716067</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01553968672652912</v>
+      </c>
+      <c r="D32">
+        <v>0.008571128413020702</v>
+      </c>
+      <c r="E32">
+        <v>0.07252201286906229</v>
+      </c>
+      <c r="F32">
+        <v>0.009720340621958748</v>
+      </c>
+      <c r="G32">
+        <v>-0.04048124113355469</v>
+      </c>
+      <c r="H32">
+        <v>-0.06072819668125203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08097919756495925</v>
+        <v>-0.09423070097866501</v>
       </c>
       <c r="C33">
-        <v>0.04392061231885305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02578725141593078</v>
+      </c>
+      <c r="D33">
+        <v>0.0526573705464882</v>
+      </c>
+      <c r="E33">
+        <v>0.01353344712880758</v>
+      </c>
+      <c r="F33">
+        <v>0.001011657547739628</v>
+      </c>
+      <c r="G33">
+        <v>0.005327496885586825</v>
+      </c>
+      <c r="H33">
+        <v>-0.07450035670094518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05558608363015866</v>
+        <v>-0.06118182412035806</v>
       </c>
       <c r="C34">
-        <v>0.0282621276294711</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.0126531780915974</v>
+      </c>
+      <c r="D34">
+        <v>0.05397164301705744</v>
+      </c>
+      <c r="E34">
+        <v>0.009627488316515304</v>
+      </c>
+      <c r="F34">
+        <v>-0.01448675560838609</v>
+      </c>
+      <c r="G34">
+        <v>-0.00920843080720252</v>
+      </c>
+      <c r="H34">
+        <v>-0.05769388325004639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03720743353774159</v>
+        <v>-0.04044847926745583</v>
       </c>
       <c r="C35">
-        <v>0.009330752363107131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.00197764122328443</v>
+      </c>
+      <c r="D35">
+        <v>0.005898651420510685</v>
+      </c>
+      <c r="E35">
+        <v>0.02371056593667605</v>
+      </c>
+      <c r="F35">
+        <v>0.01135540129015181</v>
+      </c>
+      <c r="G35">
+        <v>0.007258193859952222</v>
+      </c>
+      <c r="H35">
+        <v>-0.03244301229784433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02033379098198151</v>
+        <v>-0.02679757920763806</v>
       </c>
       <c r="C36">
-        <v>0.01713662493789888</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01320169754672604</v>
+      </c>
+      <c r="D36">
+        <v>0.01405730375485303</v>
+      </c>
+      <c r="E36">
+        <v>0.04482108466948266</v>
+      </c>
+      <c r="F36">
+        <v>-0.01522988487577398</v>
+      </c>
+      <c r="G36">
+        <v>0.005367076277759781</v>
+      </c>
+      <c r="H36">
+        <v>-0.04983939008967213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.0408156033305315</v>
+        <v>-0.04397992563276587</v>
       </c>
       <c r="C38">
-        <v>0.004525598647823831</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002537372877840244</v>
+      </c>
+      <c r="D38">
+        <v>0.01656526657437046</v>
+      </c>
+      <c r="E38">
+        <v>0.05687642372448106</v>
+      </c>
+      <c r="F38">
+        <v>0.01917293965700113</v>
+      </c>
+      <c r="G38">
+        <v>-0.01436184459850357</v>
+      </c>
+      <c r="H38">
+        <v>-0.02042808070598904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09409549167581173</v>
+        <v>-0.104819223851168</v>
       </c>
       <c r="C39">
-        <v>0.0744092423352264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.04977804415017286</v>
+      </c>
+      <c r="D39">
+        <v>0.06411074479926132</v>
+      </c>
+      <c r="E39">
+        <v>-0.003739157600814658</v>
+      </c>
+      <c r="F39">
+        <v>-0.009126191797009376</v>
+      </c>
+      <c r="G39">
+        <v>-0.04102189340078088</v>
+      </c>
+      <c r="H39">
+        <v>-0.07016316708400826</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07270364274358254</v>
+        <v>-0.07165032559735671</v>
       </c>
       <c r="C40">
-        <v>0.04069543312337832</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01945420798762676</v>
+      </c>
+      <c r="D40">
+        <v>0.01237604989510466</v>
+      </c>
+      <c r="E40">
+        <v>0.02066630917143619</v>
+      </c>
+      <c r="F40">
+        <v>0.05661112445742928</v>
+      </c>
+      <c r="G40">
+        <v>-0.04739741682515886</v>
+      </c>
+      <c r="H40">
+        <v>0.08423040712940824</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0402506222447087</v>
+        <v>-0.04362832893848304</v>
       </c>
       <c r="C41">
-        <v>0.006601855886562969</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001441375459537495</v>
+      </c>
+      <c r="D41">
+        <v>0.03475077308637046</v>
+      </c>
+      <c r="E41">
+        <v>0.007049113965686069</v>
+      </c>
+      <c r="F41">
+        <v>0.01266383227362044</v>
+      </c>
+      <c r="G41">
+        <v>-0.01633214380209889</v>
+      </c>
+      <c r="H41">
+        <v>-0.03654249765111706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04618063814259423</v>
+        <v>-0.05709337000507865</v>
       </c>
       <c r="C43">
-        <v>0.02562937144186197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01704789106575213</v>
+      </c>
+      <c r="D43">
+        <v>0.02552283706731136</v>
+      </c>
+      <c r="E43">
+        <v>0.02101612460680828</v>
+      </c>
+      <c r="F43">
+        <v>-0.01396737243772281</v>
+      </c>
+      <c r="G43">
+        <v>0.008708981476456152</v>
+      </c>
+      <c r="H43">
+        <v>-0.05207180179815755</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09458846670751596</v>
+        <v>-0.09367792268495051</v>
       </c>
       <c r="C44">
-        <v>0.09596535284829633</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06446309841769614</v>
+      </c>
+      <c r="D44">
+        <v>0.06548040592482648</v>
+      </c>
+      <c r="E44">
+        <v>0.0940554081112383</v>
+      </c>
+      <c r="F44">
+        <v>-0.04204948015107227</v>
+      </c>
+      <c r="G44">
+        <v>-0.0274532241638765</v>
+      </c>
+      <c r="H44">
+        <v>-0.0146876411928389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02484936139023417</v>
+        <v>-0.03185293065400058</v>
       </c>
       <c r="C46">
-        <v>0.01318296073402079</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009118064877577764</v>
+      </c>
+      <c r="D46">
+        <v>0.03249547472770858</v>
+      </c>
+      <c r="E46">
+        <v>0.0275495612992401</v>
+      </c>
+      <c r="F46">
+        <v>-0.01551727055837306</v>
+      </c>
+      <c r="G46">
+        <v>-0.007931554992906141</v>
+      </c>
+      <c r="H46">
+        <v>-0.03370787668005414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02779858852432534</v>
+        <v>-0.03627286009969423</v>
       </c>
       <c r="C47">
-        <v>0.02532501576944432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.02045681275894324</v>
+      </c>
+      <c r="D47">
+        <v>0.01637401816632645</v>
+      </c>
+      <c r="E47">
+        <v>0.05547201502436465</v>
+      </c>
+      <c r="F47">
+        <v>-0.007876921086497832</v>
+      </c>
+      <c r="G47">
+        <v>0.03948271839170064</v>
+      </c>
+      <c r="H47">
+        <v>-0.02367347761036936</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03106511927558783</v>
+        <v>-0.03612483725659373</v>
       </c>
       <c r="C48">
-        <v>0.01573808633599073</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.008766784719561426</v>
+      </c>
+      <c r="D48">
+        <v>0.02022256798258581</v>
+      </c>
+      <c r="E48">
+        <v>0.04357128162973068</v>
+      </c>
+      <c r="F48">
+        <v>-0.002576197521363865</v>
+      </c>
+      <c r="G48">
+        <v>-0.01471954291614098</v>
+      </c>
+      <c r="H48">
+        <v>-0.0486846931578875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.162398337668476</v>
+        <v>-0.1918253154125774</v>
       </c>
       <c r="C49">
-        <v>0.06475087838321163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03517702119783119</v>
+      </c>
+      <c r="D49">
+        <v>0.02805752610064439</v>
+      </c>
+      <c r="E49">
+        <v>-0.1485654216601402</v>
+      </c>
+      <c r="F49">
+        <v>-0.06991779721366896</v>
+      </c>
+      <c r="G49">
+        <v>0.07541417340957958</v>
+      </c>
+      <c r="H49">
+        <v>0.2260210700046713</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03696298515447314</v>
+        <v>-0.04428121351567614</v>
       </c>
       <c r="C50">
-        <v>0.02284765826670266</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01570352594076417</v>
+      </c>
+      <c r="D50">
+        <v>0.03219392711486578</v>
+      </c>
+      <c r="E50">
+        <v>0.05609565127999745</v>
+      </c>
+      <c r="F50">
+        <v>-0.01193504185451727</v>
+      </c>
+      <c r="G50">
+        <v>0.01379282212564452</v>
+      </c>
+      <c r="H50">
+        <v>-0.06550939133033769</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02574561241416058</v>
+        <v>-0.02918521326603687</v>
       </c>
       <c r="C51">
-        <v>0.01070134539848544</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.006093279114028536</v>
+      </c>
+      <c r="D51">
+        <v>0.02164666133218126</v>
+      </c>
+      <c r="E51">
+        <v>0.01450628570768276</v>
+      </c>
+      <c r="F51">
+        <v>-0.0149368482518407</v>
+      </c>
+      <c r="G51">
+        <v>-0.001089327158457326</v>
+      </c>
+      <c r="H51">
+        <v>0.00747136023416097</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1512828851118478</v>
+        <v>-0.1623399763866363</v>
       </c>
       <c r="C53">
-        <v>0.08322480556782774</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05285589981281282</v>
+      </c>
+      <c r="D53">
+        <v>0.01934002538343731</v>
+      </c>
+      <c r="E53">
+        <v>-0.02275011966242391</v>
+      </c>
+      <c r="F53">
+        <v>-0.01465541377122446</v>
+      </c>
+      <c r="G53">
+        <v>-0.004680109804716324</v>
+      </c>
+      <c r="H53">
+        <v>-0.1506034668304088</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05546259072641677</v>
+        <v>-0.05739780693931558</v>
       </c>
       <c r="C54">
-        <v>0.02458575936699517</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01176428804857923</v>
+      </c>
+      <c r="D54">
+        <v>0.01863011604210849</v>
+      </c>
+      <c r="E54">
+        <v>0.05095036511539624</v>
+      </c>
+      <c r="F54">
+        <v>-0.008633331567990354</v>
+      </c>
+      <c r="G54">
+        <v>-0.01780060907441656</v>
+      </c>
+      <c r="H54">
+        <v>-0.05636062343733166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09902625836225527</v>
+        <v>-0.1034485383156164</v>
       </c>
       <c r="C55">
-        <v>0.05754616548092802</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03589900586000096</v>
+      </c>
+      <c r="D55">
+        <v>0.02575167260381817</v>
+      </c>
+      <c r="E55">
+        <v>0.01863136307685018</v>
+      </c>
+      <c r="F55">
+        <v>-0.01549127292348045</v>
+      </c>
+      <c r="G55">
+        <v>-0.01452365230386904</v>
+      </c>
+      <c r="H55">
+        <v>-0.1376904055100545</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.146480432023721</v>
+        <v>-0.160047017468348</v>
       </c>
       <c r="C56">
-        <v>0.09435101702387202</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.0638234069868044</v>
+      </c>
+      <c r="D56">
+        <v>0.01969590534434822</v>
+      </c>
+      <c r="E56">
+        <v>-0.02638472634044272</v>
+      </c>
+      <c r="F56">
+        <v>-0.03164127817391848</v>
+      </c>
+      <c r="G56">
+        <v>0.0005640322209121829</v>
+      </c>
+      <c r="H56">
+        <v>-0.1564154913924415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1204280487439627</v>
+        <v>-0.09764668539738643</v>
       </c>
       <c r="C58">
-        <v>0.005428624285063966</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0351964443260617</v>
+      </c>
+      <c r="D58">
+        <v>0.04175516902017644</v>
+      </c>
+      <c r="E58">
+        <v>0.1649868877303856</v>
+      </c>
+      <c r="F58">
+        <v>-0.003212556402767911</v>
+      </c>
+      <c r="G58">
+        <v>0.06782680436815183</v>
+      </c>
+      <c r="H58">
+        <v>0.1762260168205742</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1164302625899553</v>
+        <v>-0.1393883482726213</v>
       </c>
       <c r="C59">
-        <v>0.08065329014510886</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08726963105412909</v>
+      </c>
+      <c r="D59">
+        <v>-0.3607453056465866</v>
+      </c>
+      <c r="E59">
+        <v>0.0272465456606142</v>
+      </c>
+      <c r="F59">
+        <v>-0.01157971641271094</v>
+      </c>
+      <c r="G59">
+        <v>0.04712420028419929</v>
+      </c>
+      <c r="H59">
+        <v>0.001719617624624076</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.201194921978828</v>
+        <v>-0.2308619712875795</v>
       </c>
       <c r="C60">
-        <v>0.105108047180845</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06700087807896811</v>
+      </c>
+      <c r="D60">
+        <v>0.03916362843915411</v>
+      </c>
+      <c r="E60">
+        <v>-0.09474457535057193</v>
+      </c>
+      <c r="F60">
+        <v>-0.06533827611271013</v>
+      </c>
+      <c r="G60">
+        <v>-0.009428413701123567</v>
+      </c>
+      <c r="H60">
+        <v>0.1731449849665593</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.07992418133159208</v>
+        <v>-0.08810256556887865</v>
       </c>
       <c r="C61">
-        <v>0.05105453235231316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03379890607315154</v>
+      </c>
+      <c r="D61">
+        <v>0.04508236010637477</v>
+      </c>
+      <c r="E61">
+        <v>-0.000933612081856928</v>
+      </c>
+      <c r="F61">
+        <v>-0.004521939611475971</v>
+      </c>
+      <c r="G61">
+        <v>-0.006464130315839696</v>
+      </c>
+      <c r="H61">
+        <v>-0.07331167393782265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1289580809898532</v>
+        <v>-0.1399181036951886</v>
       </c>
       <c r="C62">
-        <v>0.07060315427551896</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.0433398511207994</v>
+      </c>
+      <c r="D62">
+        <v>0.0264615354325118</v>
+      </c>
+      <c r="E62">
+        <v>-0.05826577498643919</v>
+      </c>
+      <c r="F62">
+        <v>-0.01503604234703561</v>
+      </c>
+      <c r="G62">
+        <v>-0.03736886772177782</v>
+      </c>
+      <c r="H62">
+        <v>-0.1560392573942541</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05306961169973138</v>
+        <v>-0.05122498303197533</v>
       </c>
       <c r="C63">
-        <v>0.02645922103999338</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01297286951610456</v>
+      </c>
+      <c r="D63">
+        <v>0.02011811571205082</v>
+      </c>
+      <c r="E63">
+        <v>0.05361103100748622</v>
+      </c>
+      <c r="F63">
+        <v>0.006170471348066141</v>
+      </c>
+      <c r="G63">
+        <v>-0.03677077788113071</v>
+      </c>
+      <c r="H63">
+        <v>-0.06346151681067214</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1085846758199353</v>
+        <v>-0.1103274574466414</v>
       </c>
       <c r="C64">
-        <v>0.02880289050253745</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.004582693523564104</v>
+      </c>
+      <c r="D64">
+        <v>0.04158489416783398</v>
+      </c>
+      <c r="E64">
+        <v>0.04169611661041431</v>
+      </c>
+      <c r="F64">
+        <v>-0.04859085121759728</v>
+      </c>
+      <c r="G64">
+        <v>-0.04920316423698659</v>
+      </c>
+      <c r="H64">
+        <v>-0.05859149980633368</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1201260112481658</v>
+        <v>-0.1267696472180736</v>
       </c>
       <c r="C65">
-        <v>0.06103681610587164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03721694949079659</v>
+      </c>
+      <c r="D65">
+        <v>0.002548758285430138</v>
+      </c>
+      <c r="E65">
+        <v>0.007171512677437912</v>
+      </c>
+      <c r="F65">
+        <v>-0.06848752653057029</v>
+      </c>
+      <c r="G65">
+        <v>-0.04897756953111741</v>
+      </c>
+      <c r="H65">
+        <v>0.09937083200396331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1443385730244503</v>
+        <v>-0.1557655084955633</v>
       </c>
       <c r="C66">
-        <v>0.07858591859231001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04447468754251662</v>
+      </c>
+      <c r="D66">
+        <v>0.1008485214085597</v>
+      </c>
+      <c r="E66">
+        <v>-0.03067242569790721</v>
+      </c>
+      <c r="F66">
+        <v>-0.01750874983226106</v>
+      </c>
+      <c r="G66">
+        <v>-0.05270853614026522</v>
+      </c>
+      <c r="H66">
+        <v>-0.1505347531833243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07363675443121448</v>
+        <v>-0.08304672055600995</v>
       </c>
       <c r="C67">
-        <v>0.01671604652407059</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.004226291725142203</v>
+      </c>
+      <c r="D67">
+        <v>0.03022223283919349</v>
+      </c>
+      <c r="E67">
+        <v>0.02582592736117294</v>
+      </c>
+      <c r="F67">
+        <v>-0.007392237661160346</v>
+      </c>
+      <c r="G67">
+        <v>0.00740281610456357</v>
+      </c>
+      <c r="H67">
+        <v>-0.02373375165720407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05923431939749049</v>
+        <v>-0.06066721626243427</v>
       </c>
       <c r="C68">
-        <v>0.05104954687455848</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05704208422462984</v>
+      </c>
+      <c r="D68">
+        <v>-0.2681200669482078</v>
+      </c>
+      <c r="E68">
+        <v>0.03953641315850311</v>
+      </c>
+      <c r="F68">
+        <v>-0.01620339888984481</v>
+      </c>
+      <c r="G68">
+        <v>0.01608646485868155</v>
+      </c>
+      <c r="H68">
+        <v>-0.009316926933180255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05227295020336728</v>
+        <v>-0.05252766252855656</v>
       </c>
       <c r="C69">
-        <v>0.02011091245322124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.00539272616301099</v>
+      </c>
+      <c r="D69">
+        <v>0.01779774575524</v>
+      </c>
+      <c r="E69">
+        <v>0.02759271703015687</v>
+      </c>
+      <c r="F69">
+        <v>0.00653159743641304</v>
+      </c>
+      <c r="G69">
+        <v>0.01140247086642407</v>
+      </c>
+      <c r="H69">
+        <v>-0.05054323598751205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.00516184940181275</v>
+        <v>-0.02651011051258081</v>
       </c>
       <c r="C70">
-        <v>-0.00463704435933016</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0003818607478662317</v>
+      </c>
+      <c r="D70">
+        <v>0.0008836244287644476</v>
+      </c>
+      <c r="E70">
+        <v>-0.02754031678299222</v>
+      </c>
+      <c r="F70">
+        <v>-0.02992329451907823</v>
+      </c>
+      <c r="G70">
+        <v>0.02458895500849853</v>
+      </c>
+      <c r="H70">
+        <v>0.05016010020121359</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06089319580242784</v>
+        <v>-0.06399054605991812</v>
       </c>
       <c r="C71">
-        <v>0.05016684265354344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05891093386373168</v>
+      </c>
+      <c r="D71">
+        <v>-0.2948773664106785</v>
+      </c>
+      <c r="E71">
+        <v>0.03457363831995824</v>
+      </c>
+      <c r="F71">
+        <v>-0.04741304687280241</v>
+      </c>
+      <c r="G71">
+        <v>0.0021581038393094</v>
+      </c>
+      <c r="H71">
+        <v>-0.0197568122106543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1388088917202586</v>
+        <v>-0.1499700050458589</v>
       </c>
       <c r="C72">
-        <v>0.06583384477127782</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03718309772208404</v>
+      </c>
+      <c r="D72">
+        <v>-0.01225952255596722</v>
+      </c>
+      <c r="E72">
+        <v>-0.1097841512577901</v>
+      </c>
+      <c r="F72">
+        <v>0.1554121026249028</v>
+      </c>
+      <c r="G72">
+        <v>-0.119757166149568</v>
+      </c>
+      <c r="H72">
+        <v>-0.01350253699731248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.264575511437141</v>
+        <v>-0.2845557438547881</v>
       </c>
       <c r="C73">
-        <v>0.1155919516094614</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.05062819623133384</v>
+      </c>
+      <c r="D73">
+        <v>0.09749506708860353</v>
+      </c>
+      <c r="E73">
+        <v>-0.2291968461802945</v>
+      </c>
+      <c r="F73">
+        <v>-0.1126485585512189</v>
+      </c>
+      <c r="G73">
+        <v>0.2250507712286384</v>
+      </c>
+      <c r="H73">
+        <v>0.5078433698283675</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07913014982001894</v>
+        <v>-0.09176860658227405</v>
       </c>
       <c r="C74">
-        <v>0.07932600094124588</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05934336072368591</v>
+      </c>
+      <c r="D74">
+        <v>0.03122233361119875</v>
+      </c>
+      <c r="E74">
+        <v>-0.003658167738293635</v>
+      </c>
+      <c r="F74">
+        <v>0.01063358914608685</v>
+      </c>
+      <c r="G74">
+        <v>0.02891678609688331</v>
+      </c>
+      <c r="H74">
+        <v>-0.1183698639262815</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.0955652817871</v>
+        <v>-0.1014412708703613</v>
       </c>
       <c r="C75">
-        <v>0.05471016727086381</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02752583663477736</v>
+      </c>
+      <c r="D75">
+        <v>0.01260505765269776</v>
+      </c>
+      <c r="E75">
+        <v>0.009814326612950565</v>
+      </c>
+      <c r="F75">
+        <v>-0.03152024659517857</v>
+      </c>
+      <c r="G75">
+        <v>0.009049898327990396</v>
+      </c>
+      <c r="H75">
+        <v>-0.1173007476352966</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1281800923939285</v>
+        <v>-0.1391952897854468</v>
       </c>
       <c r="C76">
-        <v>0.08610422678579606</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.05646164516978409</v>
+      </c>
+      <c r="D76">
+        <v>0.05174833624468361</v>
+      </c>
+      <c r="E76">
+        <v>0.02712624706996747</v>
+      </c>
+      <c r="F76">
+        <v>-0.04541236806676865</v>
+      </c>
+      <c r="G76">
+        <v>-0.006367016290096636</v>
+      </c>
+      <c r="H76">
+        <v>-0.1478703498214408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1190230464146977</v>
+        <v>-0.113164719638686</v>
       </c>
       <c r="C77">
-        <v>0.02567695404382955</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.003715257669857982</v>
+      </c>
+      <c r="D77">
+        <v>0.01432137768905339</v>
+      </c>
+      <c r="E77">
+        <v>0.002424645838577346</v>
+      </c>
+      <c r="F77">
+        <v>-0.1772409426987812</v>
+      </c>
+      <c r="G77">
+        <v>-0.8662799886662065</v>
+      </c>
+      <c r="H77">
+        <v>0.2440648273722338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09517296392905404</v>
+        <v>-0.1326572933065332</v>
       </c>
       <c r="C78">
-        <v>0.04156072410489654</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03266334342775247</v>
+      </c>
+      <c r="D78">
+        <v>0.09671998484421943</v>
+      </c>
+      <c r="E78">
+        <v>0.05629051779693975</v>
+      </c>
+      <c r="F78">
+        <v>-0.01888979985901302</v>
+      </c>
+      <c r="G78">
+        <v>-0.04819095907262257</v>
+      </c>
+      <c r="H78">
+        <v>0.06264101918930945</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1464398760314703</v>
+        <v>-0.1523648605784582</v>
       </c>
       <c r="C79">
-        <v>0.08390350518912859</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04651048466178834</v>
+      </c>
+      <c r="D79">
+        <v>0.02778507425932614</v>
+      </c>
+      <c r="E79">
+        <v>-0.01146236200798129</v>
+      </c>
+      <c r="F79">
+        <v>-0.01520862352194395</v>
+      </c>
+      <c r="G79">
+        <v>0.01495657604090762</v>
+      </c>
+      <c r="H79">
+        <v>-0.1673632745632356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04206872532736426</v>
+        <v>-0.04127314616095957</v>
       </c>
       <c r="C80">
-        <v>0.01526148577774095</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005475915217186267</v>
+      </c>
+      <c r="D80">
+        <v>0.02250943532078752</v>
+      </c>
+      <c r="E80">
+        <v>-0.01078629070180161</v>
+      </c>
+      <c r="F80">
+        <v>0.01623196583948931</v>
+      </c>
+      <c r="G80">
+        <v>0.03294761130359107</v>
+      </c>
+      <c r="H80">
+        <v>-0.0400594596088058</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1181079034464218</v>
+        <v>-0.1223308287711169</v>
       </c>
       <c r="C81">
-        <v>0.06757189224127386</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03699822499590676</v>
+      </c>
+      <c r="D81">
+        <v>0.0263871057014843</v>
+      </c>
+      <c r="E81">
+        <v>0.03058917359514758</v>
+      </c>
+      <c r="F81">
+        <v>-0.01143216203999293</v>
+      </c>
+      <c r="G81">
+        <v>0.03079724904735199</v>
+      </c>
+      <c r="H81">
+        <v>-0.1673641106850466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1268195922350616</v>
+        <v>-0.1301806607296268</v>
       </c>
       <c r="C82">
-        <v>0.08029926616108556</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04848181623290702</v>
+      </c>
+      <c r="D82">
+        <v>0.03041685056089094</v>
+      </c>
+      <c r="E82">
+        <v>-0.01289943977822471</v>
+      </c>
+      <c r="F82">
+        <v>-0.0555134114497142</v>
+      </c>
+      <c r="G82">
+        <v>0.02817788639814145</v>
+      </c>
+      <c r="H82">
+        <v>-0.1876099482642801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07942088218783548</v>
+        <v>-0.08765089280134822</v>
       </c>
       <c r="C83">
-        <v>-0.0008583627043336486</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01881220794297041</v>
+      </c>
+      <c r="D83">
+        <v>0.04195315188115571</v>
+      </c>
+      <c r="E83">
+        <v>0.02296445474139904</v>
+      </c>
+      <c r="F83">
+        <v>-0.05355714168211254</v>
+      </c>
+      <c r="G83">
+        <v>0.0984550504557283</v>
+      </c>
+      <c r="H83">
+        <v>0.05563485640212527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02919064519621808</v>
+        <v>-0.03950718820743664</v>
       </c>
       <c r="C84">
-        <v>0.02560088610654933</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.02005184015610477</v>
+      </c>
+      <c r="D84">
+        <v>0.03003759708654609</v>
+      </c>
+      <c r="E84">
+        <v>0.02880223485864953</v>
+      </c>
+      <c r="F84">
+        <v>0.05144561634676078</v>
+      </c>
+      <c r="G84">
+        <v>0.05214349131244044</v>
+      </c>
+      <c r="H84">
+        <v>-0.02981028246667766</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1180803184316288</v>
+        <v>-0.1191293689002662</v>
       </c>
       <c r="C85">
-        <v>0.06228312373006814</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03057723392815071</v>
+      </c>
+      <c r="D85">
+        <v>0.02632892131453361</v>
+      </c>
+      <c r="E85">
+        <v>0.02001571277551362</v>
+      </c>
+      <c r="F85">
+        <v>-0.04265554518877343</v>
+      </c>
+      <c r="G85">
+        <v>0.007723695174517499</v>
+      </c>
+      <c r="H85">
+        <v>-0.1446474761728191</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05002237566247605</v>
+        <v>-0.056787582360896</v>
       </c>
       <c r="C86">
-        <v>0.03083878692088677</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01911934982860371</v>
+      </c>
+      <c r="D86">
+        <v>0.02416504652536638</v>
+      </c>
+      <c r="E86">
+        <v>0.05911990338137829</v>
+      </c>
+      <c r="F86">
+        <v>-0.02829247798051437</v>
+      </c>
+      <c r="G86">
+        <v>0.007659498237507814</v>
+      </c>
+      <c r="H86">
+        <v>-0.009730868877816249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1218564522102921</v>
+        <v>-0.1225062977532139</v>
       </c>
       <c r="C87">
-        <v>0.07096865063298281</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03331417351314531</v>
+      </c>
+      <c r="D87">
+        <v>0.0778984170350924</v>
+      </c>
+      <c r="E87">
+        <v>0.01763814339220813</v>
+      </c>
+      <c r="F87">
+        <v>0.005463301721625775</v>
+      </c>
+      <c r="G87">
+        <v>-0.1082953761332529</v>
+      </c>
+      <c r="H87">
+        <v>0.026668885382395</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05312177020102676</v>
+        <v>-0.06004957191336252</v>
       </c>
       <c r="C88">
-        <v>0.03172767129153885</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01997660022258146</v>
+      </c>
+      <c r="D88">
+        <v>0.02710594272030085</v>
+      </c>
+      <c r="E88">
+        <v>0.02217349429539802</v>
+      </c>
+      <c r="F88">
+        <v>-0.007027145134642958</v>
+      </c>
+      <c r="G88">
+        <v>-0.01469407666654356</v>
+      </c>
+      <c r="H88">
+        <v>-0.05817893456382366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08326915352933391</v>
+        <v>-0.09582630785685518</v>
       </c>
       <c r="C89">
-        <v>0.0670708494108178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07801322412977145</v>
+      </c>
+      <c r="D89">
+        <v>-0.3387227139037227</v>
+      </c>
+      <c r="E89">
+        <v>0.06913716096107396</v>
+      </c>
+      <c r="F89">
+        <v>-0.08264249440690415</v>
+      </c>
+      <c r="G89">
+        <v>0.02249869768663402</v>
+      </c>
+      <c r="H89">
+        <v>-0.01217430643853745</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07277602326402145</v>
+        <v>-0.08196060101008056</v>
       </c>
       <c r="C90">
-        <v>0.05944519537935253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06790228405820979</v>
+      </c>
+      <c r="D90">
+        <v>-0.3081713356169678</v>
+      </c>
+      <c r="E90">
+        <v>0.06732431321212647</v>
+      </c>
+      <c r="F90">
+        <v>-0.006776286086310273</v>
+      </c>
+      <c r="G90">
+        <v>0.00463670974188997</v>
+      </c>
+      <c r="H90">
+        <v>-0.01039971820208407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08383682666942402</v>
+        <v>-0.08921423986657487</v>
       </c>
       <c r="C91">
-        <v>0.05528243939191669</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03319799502488297</v>
+      </c>
+      <c r="D91">
+        <v>0.03031593638743709</v>
+      </c>
+      <c r="E91">
+        <v>0.01335877849323576</v>
+      </c>
+      <c r="F91">
+        <v>-0.003854675595920298</v>
+      </c>
+      <c r="G91">
+        <v>0.04570150534184732</v>
+      </c>
+      <c r="H91">
+        <v>-0.07560144513193177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07873206855867637</v>
+        <v>-0.08514345952545686</v>
       </c>
       <c r="C92">
-        <v>0.07689505810945206</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08376358374731759</v>
+      </c>
+      <c r="D92">
+        <v>-0.3425487941554111</v>
+      </c>
+      <c r="E92">
+        <v>0.04569824247509906</v>
+      </c>
+      <c r="F92">
+        <v>-0.03455479295903671</v>
+      </c>
+      <c r="G92">
+        <v>-0.004786006339787314</v>
+      </c>
+      <c r="H92">
+        <v>-0.0219447283455423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06578171633907522</v>
+        <v>-0.07991896939262691</v>
       </c>
       <c r="C93">
-        <v>0.06453299667162021</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07789151618049471</v>
+      </c>
+      <c r="D93">
+        <v>-0.3065307059185908</v>
+      </c>
+      <c r="E93">
+        <v>0.03788836561681513</v>
+      </c>
+      <c r="F93">
+        <v>-0.04471179009317539</v>
+      </c>
+      <c r="G93">
+        <v>-0.006499482992920507</v>
+      </c>
+      <c r="H93">
+        <v>0.01068257653938992</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.133441949876769</v>
+        <v>-0.1285201338351195</v>
       </c>
       <c r="C94">
-        <v>0.06010424152854318</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.02125980698666643</v>
+      </c>
+      <c r="D94">
+        <v>0.04718621782794125</v>
+      </c>
+      <c r="E94">
+        <v>-0.003218013193896582</v>
+      </c>
+      <c r="F94">
+        <v>-0.02120298514896393</v>
+      </c>
+      <c r="G94">
+        <v>0.03685219687531133</v>
+      </c>
+      <c r="H94">
+        <v>-0.1106257961506638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1177361005702857</v>
+        <v>-0.1276027762757605</v>
       </c>
       <c r="C95">
-        <v>0.03915526484355619</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.009710726145642737</v>
+      </c>
+      <c r="D95">
+        <v>0.05831625537046741</v>
+      </c>
+      <c r="E95">
+        <v>0.00312628820857499</v>
+      </c>
+      <c r="F95">
+        <v>-0.04507500060319716</v>
+      </c>
+      <c r="G95">
+        <v>0.02250484573478269</v>
+      </c>
+      <c r="H95">
+        <v>0.02677580024373823</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.199857198260725</v>
+        <v>-0.2109973126971326</v>
       </c>
       <c r="C97">
-        <v>0.04866407091286895</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01013396425483566</v>
+      </c>
+      <c r="D97">
+        <v>-0.08643407473466572</v>
+      </c>
+      <c r="E97">
+        <v>-0.2574990028549957</v>
+      </c>
+      <c r="F97">
+        <v>0.8803332099561327</v>
+      </c>
+      <c r="G97">
+        <v>-0.120450137990187</v>
+      </c>
+      <c r="H97">
+        <v>0.01575237969373636</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2441868705518591</v>
+        <v>-0.2725824608819101</v>
       </c>
       <c r="C98">
-        <v>0.08641195300158046</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03671295781153044</v>
+      </c>
+      <c r="D98">
+        <v>0.06651134838718284</v>
+      </c>
+      <c r="E98">
+        <v>-0.157284648330824</v>
+      </c>
+      <c r="F98">
+        <v>-0.06089165590320266</v>
+      </c>
+      <c r="G98">
+        <v>0.2868757341396952</v>
+      </c>
+      <c r="H98">
+        <v>0.1964113515339851</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4669183566268837</v>
+        <v>-0.2848542362572978</v>
       </c>
       <c r="C99">
-        <v>-0.8696591171530963</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9365065419402161</v>
+      </c>
+      <c r="D99">
+        <v>-0.1277540500659186</v>
+      </c>
+      <c r="E99">
+        <v>0.06284131203001467</v>
+      </c>
+      <c r="F99">
+        <v>-0.04049980600473616</v>
+      </c>
+      <c r="G99">
+        <v>0.01326345508759516</v>
+      </c>
+      <c r="H99">
+        <v>-0.06034257474020038</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04125567750348566</v>
+        <v>-0.04815524430182307</v>
       </c>
       <c r="C101">
-        <v>0.03192947068261843</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02478954773947779</v>
+      </c>
+      <c r="D101">
+        <v>0.005507311947628147</v>
+      </c>
+      <c r="E101">
+        <v>0.051891991532731</v>
+      </c>
+      <c r="F101">
+        <v>-0.0007767280521343454</v>
+      </c>
+      <c r="G101">
+        <v>-0.002217128817376718</v>
+      </c>
+      <c r="H101">
+        <v>-0.07927360393387654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
